--- a/resources/doc/OpenLens123.xlsx
+++ b/resources/doc/OpenLens123.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/277784AAAE452014/เอกสาร/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0F941A1-E740-47E9-8C3F-79153EDB3AF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{E9DB26D5-7FF2-4CFC-85F8-27A879D7D190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C3170D79-2EFC-4732-8059-1CE82A072C43}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2955" yWindow="3600" windowWidth="25545" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,29 +36,29 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>Account Number:</t>
-  </si>
-  <si>
-    <t>Issue Date:</t>
-  </si>
-  <si>
-    <t>Invoice Period:</t>
-  </si>
-  <si>
-    <t>Invoice Number:</t>
-  </si>
-  <si>
-    <t>Total Amount Paid:</t>
-  </si>
-  <si>
-    <t>Payment Method:</t>
+    <t>Account Number</t>
+  </si>
+  <si>
+    <t>Issue Date</t>
+  </si>
+  <si>
+    <t>Invoice Period</t>
+  </si>
+  <si>
+    <t>Invoice Number</t>
+  </si>
+  <si>
+    <t>Total Amount Paid</t>
+  </si>
+  <si>
+    <t>Payment Method</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -433,10 +431,10 @@
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.125" customWidth="1"/>
     <col min="2" max="2" width="15.75" customWidth="1"/>
@@ -446,7 +444,7 @@
     <col min="6" max="6" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
